--- a/outputs-HGR-r202/test-f__Erysipelotrichaceae_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__Erysipelotrichaceae_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="32">
   <si>
     <t>Row</t>
   </si>
@@ -130,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -140,14 +140,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -181,63 +185,63 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -293,7 +297,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -349,7 +353,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -405,7 +409,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -461,7 +465,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -517,7 +521,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -573,7 +577,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -629,7 +633,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -685,7 +689,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -741,7 +745,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
@@ -797,7 +801,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
@@ -853,7 +857,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
@@ -909,7 +913,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
@@ -965,7 +969,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15">

--- a/outputs-HGR-r202/test-f__Erysipelotrichaceae_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-f__Erysipelotrichaceae_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Row</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>even_MAG-GUT5880.fa</t>
+  </si>
+  <si>
+    <t>even_MAG-GUT59590.fa</t>
   </si>
   <si>
     <t>even_MAG-GUT7064.fa</t>
@@ -160,7 +163,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R17"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="true"/>
@@ -188,55 +191,55 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -860,55 +863,55 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>0.00090574285210153773</v>
+        <v>0.015250153058325919</v>
       </c>
       <c r="C13">
-        <v>0.0060821867185545707</v>
+        <v>0.6013809490521792</v>
       </c>
       <c r="D13">
-        <v>0.068238317733299747</v>
+        <v>0.066475227759019512</v>
       </c>
       <c r="E13">
-        <v>7.1257254197137373e-06</v>
+        <v>4.9595904063263678e-06</v>
       </c>
       <c r="F13">
-        <v>0.0042763922730076004</v>
+        <v>0.038818236729910131</v>
       </c>
       <c r="G13">
-        <v>0.0011523948347758447</v>
+        <v>0.00021187956627581703</v>
       </c>
       <c r="H13">
-        <v>0.00028857073657090283</v>
+        <v>0.016389592069833363</v>
       </c>
       <c r="I13">
-        <v>2.1363526470791132e-05</v>
+        <v>0.074875139322689202</v>
       </c>
       <c r="J13">
-        <v>0.0023644591680468696</v>
+        <v>0.036153321615545943</v>
       </c>
       <c r="K13">
-        <v>0.75790697802265428</v>
+        <v>0.077370963949591379</v>
       </c>
       <c r="L13">
-        <v>0.0001280086080568159</v>
+        <v>0.016821917687198189</v>
       </c>
       <c r="M13">
-        <v>0.0011933535814562255</v>
+        <v>0.010421111754820552</v>
       </c>
       <c r="N13">
-        <v>1.9265973955553136e-07</v>
+        <v>0.026789951960749576</v>
       </c>
       <c r="O13">
-        <v>6.7190719961999714e-07</v>
+        <v>0.00032283816165145409</v>
       </c>
       <c r="P13">
-        <v>0.15742840351352735</v>
+        <v>0.018711226168450789</v>
       </c>
       <c r="Q13">
-        <v>5.8381391184756775e-06</v>
+        <v>2.5315533529541227e-06</v>
       </c>
       <c r="R13">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -916,55 +919,55 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1.7871645791675685e-05</v>
+        <v>0.00090574285210153773</v>
       </c>
       <c r="C14">
-        <v>0.010282584731343164</v>
+        <v>0.0060821867185545707</v>
       </c>
       <c r="D14">
-        <v>0.20790622110058465</v>
+        <v>0.068238317733299747</v>
       </c>
       <c r="E14">
-        <v>4.5908896899702404e-06</v>
+        <v>7.1257254197137373e-06</v>
       </c>
       <c r="F14">
-        <v>0.22148204629911375</v>
+        <v>0.0042763922730076004</v>
       </c>
       <c r="G14">
-        <v>0.011004524591651179</v>
+        <v>0.0011523948347758447</v>
       </c>
       <c r="H14">
-        <v>0.004261035310357107</v>
+        <v>0.00028857073657090283</v>
       </c>
       <c r="I14">
-        <v>0.00067864706589187323</v>
+        <v>2.1363526470791132e-05</v>
       </c>
       <c r="J14">
-        <v>0.046265386624440075</v>
+        <v>0.0023644591680468696</v>
       </c>
       <c r="K14">
-        <v>0.065643700560152701</v>
+        <v>0.75790697802265428</v>
       </c>
       <c r="L14">
-        <v>7.4063835345984061e-05</v>
+        <v>0.0001280086080568159</v>
       </c>
       <c r="M14">
-        <v>0.0025545229990425427</v>
+        <v>0.0011933535814562255</v>
       </c>
       <c r="N14">
-        <v>7.6388828313443654e-06</v>
+        <v>1.9265973955553136e-07</v>
       </c>
       <c r="O14">
-        <v>3.2186447815170388e-06</v>
+        <v>6.7190719961999714e-07</v>
       </c>
       <c r="P14">
-        <v>0.42976249995377092</v>
+        <v>0.15742840351352735</v>
       </c>
       <c r="Q14">
-        <v>5.1446865211663526e-05</v>
+        <v>5.8381391184756775e-06</v>
       </c>
       <c r="R14">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -972,55 +975,55 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0.0011936997268404163</v>
+        <v>1.7871645791675685e-05</v>
       </c>
       <c r="C15">
-        <v>0.00082186637700134982</v>
+        <v>0.010282584731343164</v>
       </c>
       <c r="D15">
-        <v>0.063221918764230833</v>
+        <v>0.20790622110058465</v>
       </c>
       <c r="E15">
-        <v>5.5213659969861118e-05</v>
+        <v>4.5908896899702404e-06</v>
       </c>
       <c r="F15">
-        <v>0.049341370266262195</v>
+        <v>0.22148204629911375</v>
       </c>
       <c r="G15">
-        <v>0.00072665556569923571</v>
+        <v>0.011004524591651179</v>
       </c>
       <c r="H15">
-        <v>0.0010040803517695404</v>
+        <v>0.004261035310357107</v>
       </c>
       <c r="I15">
-        <v>7.7578278683078318e-05</v>
+        <v>0.00067864706589187323</v>
       </c>
       <c r="J15">
-        <v>0.0060001445546276717</v>
+        <v>0.046265386624440075</v>
       </c>
       <c r="K15">
-        <v>0.06834773612362631</v>
+        <v>0.065643700560152701</v>
       </c>
       <c r="L15">
-        <v>0.0030334373125347658</v>
+        <v>7.4063835345984061e-05</v>
       </c>
       <c r="M15">
-        <v>0.00048545626198841457</v>
+        <v>0.0025545229990425427</v>
       </c>
       <c r="N15">
-        <v>2.4114104429730161e-07</v>
+        <v>7.6388828313443654e-06</v>
       </c>
       <c r="O15">
-        <v>7.2170372715933754e-05</v>
+        <v>3.2186447815170388e-06</v>
       </c>
       <c r="P15">
-        <v>0.00041051934061830947</v>
+        <v>0.42976249995377092</v>
       </c>
       <c r="Q15">
-        <v>0.80520791190238783</v>
+        <v>5.1446865211663526e-05</v>
       </c>
       <c r="R15">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1028,54 +1031,110 @@
         <v>15</v>
       </c>
       <c r="B16">
+        <v>0.0011936997268404163</v>
+      </c>
+      <c r="C16">
+        <v>0.00082186637700134982</v>
+      </c>
+      <c r="D16">
+        <v>0.063221918764230833</v>
+      </c>
+      <c r="E16">
+        <v>5.5213659969861118e-05</v>
+      </c>
+      <c r="F16">
+        <v>0.049341370266262195</v>
+      </c>
+      <c r="G16">
+        <v>0.00072665556569923571</v>
+      </c>
+      <c r="H16">
+        <v>0.0010040803517695404</v>
+      </c>
+      <c r="I16">
+        <v>7.7578278683078318e-05</v>
+      </c>
+      <c r="J16">
+        <v>0.0060001445546276717</v>
+      </c>
+      <c r="K16">
+        <v>0.06834773612362631</v>
+      </c>
+      <c r="L16">
+        <v>0.0030334373125347658</v>
+      </c>
+      <c r="M16">
+        <v>0.00048545626198841457</v>
+      </c>
+      <c r="N16">
+        <v>2.4114104429730161e-07</v>
+      </c>
+      <c r="O16">
+        <v>7.2170372715933754e-05</v>
+      </c>
+      <c r="P16">
+        <v>0.00041051934061830947</v>
+      </c>
+      <c r="Q16">
+        <v>0.80520791190238783</v>
+      </c>
+      <c r="R16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
         <v>0.0023645520096410417</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>0.0073008146269449726</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>0.94473209187554352</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>3.7131743017928984e-06</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>0.0075568375897911667</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>0.00069942194964963452</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>7.031288171322759e-05</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>0.0065213923181253941</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>0.002802629273132982</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <v>0.0022432385834726329</v>
       </c>
-      <c r="L16">
+      <c r="L17">
         <v>0.00026216510088689462</v>
       </c>
-      <c r="M16">
+      <c r="M17">
         <v>0.0028357457457853161</v>
       </c>
-      <c r="N16">
+      <c r="N17">
         <v>4.4551862489284881e-06</v>
       </c>
-      <c r="O16">
+      <c r="O17">
         <v>4.3944911320746092e-05</v>
       </c>
-      <c r="P16">
+      <c r="P17">
         <v>0.022558596393186209</v>
       </c>
-      <c r="Q16">
+      <c r="Q17">
         <v>8.8380255518951345e-08</v>
       </c>
-      <c r="R16">
+      <c r="R17">
         <v>3</v>
       </c>
     </row>
